--- a/testcases/SupportCenter TC-006.xlsx
+++ b/testcases/SupportCenter TC-006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\webdriverio_docker_compose_ghAction\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299A5811-6003-4193-8476-E1DB8E2A505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A60528-A0DB-4663-9699-7A161058A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="1800" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
